--- a/metrics/R2/average & upto/Ictus.xlsx
+++ b/metrics/R2/average & upto/Ictus.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3193212002287668</v>
+        <v>0.3183543026943972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3193212002287668</v>
+        <v>0.3183543026943972</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3193212002287668</v>
+        <v>0.3183543026943972</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9988905544148645</v>
+        <v>0.9860939822066772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989550180756903</v>
+        <v>0.9849474822467379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9989801647759863</v>
+        <v>0.985668199638512</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995376303993663</v>
+        <v>0.9945510876445628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995361626405815</v>
+        <v>0.9945261274394845</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995382228452288</v>
+        <v>0.9945102681814547</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9658508867739617</v>
+        <v>0.9346944523835788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9594677761101648</v>
+        <v>0.9551003415052364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.964215982950603</v>
+        <v>0.9441935518682817</v>
       </c>
     </row>
   </sheetData>
